--- a/medicine/Enfance/Andreu_Martín/Andreu_Martín.xlsx
+++ b/medicine/Enfance/Andreu_Martín/Andreu_Martín.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andreu_Mart%C3%ADn</t>
+          <t>Andreu_Martín</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrés Martín Farrero, dit Andreu Martín, né à Barcelone le 9 mai 1949, est un romancier, bédéiste et scénariste espagnol d'origine catalane. Connu en Espagne pour ses bandes dessinées, il l'est surtout en France pour ses romans noirs parus en Série noire et pour la série des Flanagan, romans jeunesse écrits en collaboration avec Jaume Ribera (es).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andreu_Mart%C3%ADn</t>
+          <t>Andreu_Martín</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en Psychologie de l'Université de Barcelone en 1971, il n'exercera jamais dans ce domaine au profit de l'écriture de scénario de bandes dessinées. Dès 1965, il imagine, avec Edmond Ripoll aux dessins, la série de science-fiction Fantasia S.A., parue en français sous le titre Fantasia et Cie dans les dix premiers numéros de la revue Antarès. Pour le marché allemand, il crée, avec le dessinateur Suso, la série Dave Wheeler, publiée en France dans la revue Yataca. En 1983, il collabore avec Josep Gual pour Jeff Blake, el Hombre de Pinkerton.
 Outre son activité de bédéiste, Martín se fait un nom dès 1969 dans la littérature d'enfance et de jeunesse avec Vampire malgré moi (1969), et plus tard avec La Sardine (1989), ce dernier roman amorçant la série de l'adolescent détective Flanagan, son personnage le plus célèbre, dont les aventures ont été traduites en plusieurs langues.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andreu_Mart%C3%ADn</t>
+          <t>Andreu_Martín</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Signés Andreu Martín
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Signés Andreu Martín
 Aprende y calla (1979)
 El Signor Capone no está en casa (1979)
 Pròtesis (1979) Publié en français sous le titre Prothèse, Paris, Gallimard, coll. « Série noire » no 2360, 1994
@@ -602,11 +621,79 @@
 Signé Marti Sarroca
 La Chica que lo ensenaba todo (1987)
 Signé Kenneth Cross
-Guerra ciega (2003)
-Recueil de nouvelles signé Andreu Martín
-Niños que muerden a perros (2012)
-Romans de littérature d'enfance et de jeunesse
-Série Flanagan
+Guerra ciega (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andreu_Martín</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andreu_Mart%C3%ADn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles signé Andreu Martín</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Niños que muerden a perros (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andreu_Martín</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andreu_Mart%C3%ADn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Flanagan
 No demanis llobarro fora de temporada (1987) Publié en français sous le titre La Sardine, Paris, Hachette, coll. « Bibliothèque verte » no 806, 1990
 Tots els detectius es diuen Flanagan (1990) Publié en français sous le titre Tous les détectives s'appellent Flanagan, Paris, Gallimard, coll. « Page noire », 1995 ; réédition, Paris, Gallimard, coll. « Page noire » no 20, 1998
 No te'n rentis les mans, Flanagan (1993)
@@ -664,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Andreu_Mart%C3%ADn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Andreu_Martín</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Andreu_Mart%C3%ADn</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix national de Littérature infantile et juvénile 1989 pour La Sardine
 Prix Hammett 1989 pour Barcelona Connection</t>
